--- a/data/trans_dic/P1418-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1418-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1013660132355418</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.02575731974273549</v>
+        <v>0.02575731974273548</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.06351367577824492</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02089478787907204</v>
+        <v>0.02035545873905533</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01584798798678789</v>
+        <v>0.01600985501408891</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.00816584014928704</v>
+        <v>0.008189801160989709</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.007574234809561804</v>
+        <v>0.007251337479378156</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0566026547560407</v>
+        <v>0.0555443403057178</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05523593578324977</v>
+        <v>0.05546694587492977</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06894938145579842</v>
+        <v>0.06651332063646509</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01491221059035818</v>
+        <v>0.01476286985253879</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04383895616899338</v>
+        <v>0.04303360431647305</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03974896296015393</v>
+        <v>0.04101097398803709</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04342246334271971</v>
+        <v>0.04338582476278336</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01364983608241435</v>
+        <v>0.01392635286814801</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06476837758336834</v>
+        <v>0.06524430476893037</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05642364243183292</v>
+        <v>0.05573483023138339</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04067548032144054</v>
+        <v>0.04258282865414687</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03405834180996428</v>
+        <v>0.03462307537478274</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1275636526673352</v>
+        <v>0.1260365253598494</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1240227144408771</v>
+        <v>0.1247085152517302</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1389275026708577</v>
+        <v>0.1394202666607385</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04026372369197702</v>
+        <v>0.04013793196551786</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08672994869223496</v>
+        <v>0.08717523611209069</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.08037646614811553</v>
+        <v>0.08027091133118477</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08383335488186137</v>
+        <v>0.08206074591649509</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03104845364381236</v>
+        <v>0.03158990955645435</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.01826176648235668</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.02311033317318608</v>
+        <v>0.02311033317318609</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1378927875512157</v>
@@ -833,7 +833,7 @@
         <v>0.03296998513322519</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.0404099799865181</v>
+        <v>0.04040997998651809</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0395967783063852</v>
+        <v>0.04051028340720755</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01411733130252604</v>
+        <v>0.01420016600794138</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.00785249787374003</v>
+        <v>0.008305263491549196</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01256600170528655</v>
+        <v>0.0115452899516879</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1075119990353004</v>
+        <v>0.1096591771772879</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04884351225794786</v>
+        <v>0.0478603527209813</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02917615428980734</v>
+        <v>0.02863687797124365</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04288488076637399</v>
+        <v>0.04148526689050214</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0824662199296874</v>
+        <v>0.08077194938969028</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03525010800422353</v>
+        <v>0.03511614265921453</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02222034912608462</v>
+        <v>0.02262361947153387</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03110251182048919</v>
+        <v>0.03097071489247257</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08652105171730702</v>
+        <v>0.08779036710937624</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04713179494966202</v>
+        <v>0.04750001640698393</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03261170189917641</v>
+        <v>0.03363812016772708</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04050939833422919</v>
+        <v>0.03990129875395864</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1668886945450268</v>
+        <v>0.1697984391972998</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09358726826881091</v>
+        <v>0.09463982960050557</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07294908989850046</v>
+        <v>0.0708894658548672</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07505488044059871</v>
+        <v>0.07514185882645424</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1185510635045352</v>
+        <v>0.1217661384162655</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06391249349289153</v>
+        <v>0.06433827237794361</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04572626559168004</v>
+        <v>0.04878027921596775</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05187408789721587</v>
+        <v>0.05204023887731839</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.03765320358067715</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.071101281931974</v>
+        <v>0.07110128193197399</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01921035672165123</v>
+        <v>0.01978746911215194</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01910324192390127</v>
+        <v>0.01905386825428364</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01691008950101043</v>
+        <v>0.01807719496848099</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03925806192129151</v>
+        <v>0.03897088839019704</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04728871314678654</v>
+        <v>0.045347961113274</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04330910425463693</v>
+        <v>0.04486979491097609</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02353317376049107</v>
+        <v>0.02478866590155546</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0628062562066995</v>
+        <v>0.06415934788112478</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03791621397486866</v>
+        <v>0.03831461121833569</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03718335820895544</v>
+        <v>0.03632646344049506</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02542325629169863</v>
+        <v>0.02517703471540577</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05752508562385518</v>
+        <v>0.05681536160761522</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06054074324358176</v>
+        <v>0.06167532248169664</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05981293340204462</v>
+        <v>0.06135807259268072</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05684316702259029</v>
+        <v>0.05681132134061046</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08361525969731667</v>
+        <v>0.08434799702784</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1053229624270834</v>
+        <v>0.1022753396630084</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09635216818085553</v>
+        <v>0.09770728247444777</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06966133330710922</v>
+        <v>0.07208496860858897</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1053494453641718</v>
+        <v>0.1069134459044316</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07242806884451555</v>
+        <v>0.07280951798811713</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07307323217194739</v>
+        <v>0.07052920499974942</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05391535859799076</v>
+        <v>0.05517244106897131</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08826678096502821</v>
+        <v>0.08674716214840232</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.0487994975620101</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.05457482485495605</v>
+        <v>0.05457482485495607</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.05593538459769044</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01980143285628957</v>
+        <v>0.0176860042507479</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02327414325082092</v>
+        <v>0.02301724447181679</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0098915381329389</v>
+        <v>0.01007154477240423</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02317551668600304</v>
+        <v>0.02295557601360214</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05260155373979976</v>
+        <v>0.05584586802282129</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1074760534061396</v>
+        <v>0.1113722980451965</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02899123533779005</v>
+        <v>0.02895900921253061</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04003520206930784</v>
+        <v>0.04047434593175307</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04097471341242347</v>
+        <v>0.04047502335690138</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07137200438509125</v>
+        <v>0.07206353501891573</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0240938882223888</v>
+        <v>0.02279122358735088</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03693185248370158</v>
+        <v>0.03531273408720552</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05625277029039202</v>
+        <v>0.05206697881063221</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06500110088153302</v>
+        <v>0.06475550899665779</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04143324818520389</v>
+        <v>0.04360176368501748</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07116146565273429</v>
+        <v>0.06852839437464782</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1074747668308896</v>
+        <v>0.1098731830891108</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1824955987743137</v>
+        <v>0.1853881790339098</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07921294800256509</v>
+        <v>0.0800287469167711</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0712791865019205</v>
+        <v>0.07363942914476378</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07430038740637446</v>
+        <v>0.07146393222613276</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1141981093671048</v>
+        <v>0.1152579939712669</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05112149877513306</v>
+        <v>0.05097230012201249</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06322807753429489</v>
+        <v>0.06331834694895339</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.03456388842577184</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.06902377923462456</v>
+        <v>0.06902377923462458</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02496189749937108</v>
+        <v>0.02845765338379566</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0261431734290715</v>
+        <v>0.02160537522153348</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01590000394876775</v>
+        <v>0.01430566711361619</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06517144448346512</v>
+        <v>0.06387977837737913</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1077702125779736</v>
+        <v>0.1079270031604283</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03444385701392334</v>
+        <v>0.03478646175811307</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08236930196074529</v>
+        <v>0.08120432342987324</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0544698596185572</v>
+        <v>0.05694265159071197</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0757943266610497</v>
+        <v>0.07534563086017254</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0191538712998162</v>
+        <v>0.01981031331550752</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05485266283095172</v>
+        <v>0.05520742453291349</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08977156555337479</v>
+        <v>0.09601549388169317</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08742272956650166</v>
+        <v>0.08552371730216068</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02773318026030129</v>
+        <v>0.02418286848634749</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05383868493772141</v>
+        <v>0.05054699600502492</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1548085311790595</v>
+        <v>0.1561096431770566</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2017740121373016</v>
+        <v>0.2083963075571012</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.100108819552721</v>
+        <v>0.1018772773241379</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1336448924773411</v>
+        <v>0.13301198513558</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1100259929768202</v>
+        <v>0.1106160461452159</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1352974484013793</v>
+        <v>0.1315597289112654</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05678389668024386</v>
+        <v>0.05663012468035089</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0868785053227259</v>
+        <v>0.0875605390905944</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.03384521321713848</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.08206126043628199</v>
+        <v>0.08206126043628201</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.1022083898013706</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01821040932703175</v>
+        <v>0.01763077807074797</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01563833033425189</v>
+        <v>0.01535188196993895</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01668121495475504</v>
+        <v>0.01621899859955143</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0604879603038378</v>
+        <v>0.06086072640958294</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06960236221704985</v>
+        <v>0.06886694648630139</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06608953337006525</v>
+        <v>0.06594909081280871</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03752926611093126</v>
+        <v>0.03995371395173011</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1217988075676849</v>
+        <v>0.1221997338237938</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04937217980077035</v>
+        <v>0.04852823492128884</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.04750177725077149</v>
+        <v>0.04614981931538724</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.03360677091812651</v>
+        <v>0.0328245862317843</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.09683169345762815</v>
+        <v>0.09653936924014055</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06394904423716463</v>
+        <v>0.06383543894191279</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06121963707969244</v>
+        <v>0.06226606193809498</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06017960446337384</v>
+        <v>0.05872875030451376</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1061952152843731</v>
+        <v>0.1089509213238936</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1421251396332156</v>
+        <v>0.1419072714853829</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1375035208929873</v>
+        <v>0.1407664303712498</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1006651500052763</v>
+        <v>0.1111077678318751</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.181326802225883</v>
+        <v>0.1826267236376405</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.09248281591295063</v>
+        <v>0.09291018886326148</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.09060253195088164</v>
+        <v>0.08797428971596864</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.07463959273350124</v>
+        <v>0.06987557802972072</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1356410129735328</v>
+        <v>0.136257950989763</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03225278516366847</v>
+        <v>0.03176063232029678</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02584704418264041</v>
+        <v>0.02739153052428183</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01913171727891953</v>
+        <v>0.02065440341475269</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04729334148234842</v>
+        <v>0.0462015478693626</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06863468406037351</v>
+        <v>0.06920581892137007</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.09113573701548862</v>
+        <v>0.08965090084581712</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.081103597182486</v>
+        <v>0.08039977220735282</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1406760385058979</v>
+        <v>0.1376047408334345</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0564487121181327</v>
+        <v>0.05678973470474515</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.06371956222927852</v>
+        <v>0.06441850246068319</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.0554332847558417</v>
+        <v>0.05480102345967986</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.09768610916502156</v>
+        <v>0.09985279314184564</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06719665287474182</v>
+        <v>0.06686583532562192</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06060194231262826</v>
+        <v>0.05965068898436748</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04747143904877484</v>
+        <v>0.05111019813524927</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.08649427526528634</v>
+        <v>0.08775382753237576</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1162511767871222</v>
+        <v>0.1159563152650067</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1422916165325548</v>
+        <v>0.1412931085719471</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1309938370341342</v>
+        <v>0.1313904588794958</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1877511338855353</v>
+        <v>0.1841020629957529</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.08528864941082698</v>
+        <v>0.08599223655013473</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.09481050509121526</v>
+        <v>0.09686340719516401</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.08556370468702021</v>
+        <v>0.08430288905274422</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1293704649226505</v>
+        <v>0.1312586649321366</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.07653367021270334</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.06054561784059508</v>
+        <v>0.06054561784059509</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.1018630585327474</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.07009308174265332</v>
+        <v>0.07004863903584987</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.006930168102853787</v>
+        <v>0.006798607822612852</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01326664388720605</v>
+        <v>0.01276715677043842</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02053903395457447</v>
+        <v>0.02085357860804295</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.09164178403293105</v>
+        <v>0.09227243718620606</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.06432186560978261</v>
+        <v>0.06498918940227941</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.05822534162208788</v>
+        <v>0.05845889616601266</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.04715766707356843</v>
+        <v>0.04829386181939726</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.08822765285471905</v>
+        <v>0.08710670125274124</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.03860718720095587</v>
+        <v>0.038293931907863</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.0399849095250079</v>
+        <v>0.03998923817654484</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.03764279066760446</v>
+        <v>0.03747497320028616</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1107337993394102</v>
+        <v>0.1110564463710217</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02415293804819165</v>
+        <v>0.02474351288120785</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03527871091538531</v>
+        <v>0.0346445888271568</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.04511378562540378</v>
+        <v>0.04348110567624373</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1399704594468876</v>
+        <v>0.140144967404437</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1034995688597373</v>
+        <v>0.1031945834508297</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.09961459886361597</v>
+        <v>0.1005932672214204</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.07479288981966681</v>
+        <v>0.07597770108742215</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1188804124660032</v>
+        <v>0.1176590969979681</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.0609851520467303</v>
+        <v>0.06059306988616892</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.06254822636548242</v>
+        <v>0.06252212777390574</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.0550073660760677</v>
+        <v>0.05618029235152974</v>
       </c>
     </row>
     <row r="28">
@@ -1785,7 +1785,7 @@
         <v>0.04825477660544995</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.06597369215231894</v>
+        <v>0.06597369215231895</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.04694640332685313</v>
+        <v>0.04708071442919359</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02544235998302219</v>
+        <v>0.02580217207848792</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01925639087437507</v>
+        <v>0.01873875751170737</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.03562357527453462</v>
+        <v>0.03612528513353642</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.09103075032187732</v>
+        <v>0.09155668408846129</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.08714138554950125</v>
+        <v>0.08702727734588986</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.06120543468530249</v>
+        <v>0.06223484068968935</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.0811544810072912</v>
+        <v>0.08116516470477296</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.07144356442974042</v>
+        <v>0.07167498521495064</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.05941895951808796</v>
+        <v>0.05880016043080721</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.04311381340881379</v>
+        <v>0.04356867484366349</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.06108403310621778</v>
+        <v>0.06161691223665149</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.06311103665684875</v>
+        <v>0.06360439387234765</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.03798949828198563</v>
+        <v>0.03780106521180109</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.03037327066976976</v>
+        <v>0.02947860663555106</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.04884153538639274</v>
+        <v>0.04939330593172553</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1123433959369891</v>
+        <v>0.1126422731976497</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1078140056600563</v>
+        <v>0.1069975834415899</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.07969049438685875</v>
+        <v>0.08095498076283243</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.09561634275867957</v>
+        <v>0.09642768722399776</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.08485909684550449</v>
+        <v>0.08497066717122505</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.07205945094544505</v>
+        <v>0.0713043782502495</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.05383527573786068</v>
+        <v>0.05381226858868261</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.07108793492571847</v>
+        <v>0.07153012424160966</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5704</v>
+        <v>5557</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4671</v>
+        <v>4719</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2399</v>
+        <v>2406</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2415</v>
+        <v>2312</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>14764</v>
+        <v>14488</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>15866</v>
+        <v>15933</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>19906</v>
+        <v>19203</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4705</v>
+        <v>4658</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>23403</v>
+        <v>22973</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>23133</v>
+        <v>23868</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>25292</v>
+        <v>25271</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>8659</v>
+        <v>8834</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17682</v>
+        <v>17812</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16630</v>
+        <v>16427</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11949</v>
+        <v>12509</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10859</v>
+        <v>11039</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>33273</v>
+        <v>32875</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>35625</v>
+        <v>35822</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>40109</v>
+        <v>40251</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>12703</v>
+        <v>12664</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>46301</v>
+        <v>46538</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>46778</v>
+        <v>46716</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>48830</v>
+        <v>47797</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>19696</v>
+        <v>20039</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>19524</v>
+        <v>19975</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7137</v>
+        <v>7179</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3946</v>
+        <v>4174</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6656</v>
+        <v>6115</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>54181</v>
+        <v>55263</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>25583</v>
+        <v>25068</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>15262</v>
+        <v>14979</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>23346</v>
+        <v>22584</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>82221</v>
+        <v>80532</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>36283</v>
+        <v>36145</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>22791</v>
+        <v>23204</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>33405</v>
+        <v>33264</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>42661</v>
+        <v>43287</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>23826</v>
+        <v>24013</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16390</v>
+        <v>16906</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>21456</v>
+        <v>21134</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>84103</v>
+        <v>85570</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>49018</v>
+        <v>49569</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>38159</v>
+        <v>37081</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>40859</v>
+        <v>40906</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>118198</v>
+        <v>121404</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>65785</v>
+        <v>66223</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>46900</v>
+        <v>50032</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>55715</v>
+        <v>55894</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6125</v>
+        <v>6309</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6190</v>
+        <v>6174</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5387</v>
+        <v>5759</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12405</v>
+        <v>12315</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>15861</v>
+        <v>15210</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14769</v>
+        <v>15301</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7914</v>
+        <v>8337</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>22383</v>
+        <v>22865</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>24807</v>
+        <v>25068</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>24729</v>
+        <v>24159</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>16649</v>
+        <v>16488</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>38678</v>
+        <v>38201</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19303</v>
+        <v>19665</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>19382</v>
+        <v>19883</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>18108</v>
+        <v>18098</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>26422</v>
+        <v>26653</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>35327</v>
+        <v>34304</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>32858</v>
+        <v>33320</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>23428</v>
+        <v>24243</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>37545</v>
+        <v>38102</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>47387</v>
+        <v>47636</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>48599</v>
+        <v>46907</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>35308</v>
+        <v>36131</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>59348</v>
+        <v>58327</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7102</v>
+        <v>6343</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8704</v>
+        <v>8608</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3660</v>
+        <v>3726</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>8648</v>
+        <v>8566</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>19539</v>
+        <v>20744</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>41803</v>
+        <v>43318</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>11228</v>
+        <v>11215</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>16893</v>
+        <v>17079</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>29917</v>
+        <v>29552</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>54452</v>
+        <v>54980</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>18245</v>
+        <v>17259</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>29365</v>
+        <v>28077</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20176</v>
+        <v>18675</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>24309</v>
+        <v>24217</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>15329</v>
+        <v>16131</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>26554</v>
+        <v>25571</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>39922</v>
+        <v>40813</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>70982</v>
+        <v>72107</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>30678</v>
+        <v>30994</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>30077</v>
+        <v>31073</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>54249</v>
+        <v>52178</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>87126</v>
+        <v>87934</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>38712</v>
+        <v>38599</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>50273</v>
+        <v>50345</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5075</v>
+        <v>5786</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5559</v>
+        <v>4594</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3270</v>
+        <v>2942</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>13534</v>
+        <v>13266</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>23665</v>
+        <v>23700</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>7529</v>
+        <v>7604</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>18660</v>
+        <v>18396</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>22386</v>
+        <v>23402</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>32759</v>
+        <v>32565</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>8232</v>
+        <v>8515</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>23707</v>
+        <v>23861</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>18251</v>
+        <v>19521</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18588</v>
+        <v>18184</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5858</v>
+        <v>5108</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>11073</v>
+        <v>10396</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>32149</v>
+        <v>32419</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>44308</v>
+        <v>45762</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>21882</v>
+        <v>22269</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>30276</v>
+        <v>30132</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>45218</v>
+        <v>45461</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>58477</v>
+        <v>56861</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>24406</v>
+        <v>24340</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>37549</v>
+        <v>37844</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4932</v>
+        <v>4775</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4285</v>
+        <v>4206</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4389</v>
+        <v>4268</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>16375</v>
+        <v>16475</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>19359</v>
+        <v>19155</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>18379</v>
+        <v>18340</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>10250</v>
+        <v>10912</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>32045</v>
+        <v>32151</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>27103</v>
+        <v>26640</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>26225</v>
+        <v>25478</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>18021</v>
+        <v>17602</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>51689</v>
+        <v>51533</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>17318</v>
+        <v>17287</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>16773</v>
+        <v>17060</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>15835</v>
+        <v>15453</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>28748</v>
+        <v>29494</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>39531</v>
+        <v>39471</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>38239</v>
+        <v>39147</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>27493</v>
+        <v>30345</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>47707</v>
+        <v>48049</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>50769</v>
+        <v>51004</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>50020</v>
+        <v>48569</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>40025</v>
+        <v>37470</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>72406</v>
+        <v>72735</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>19836</v>
+        <v>19534</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>17131</v>
+        <v>18155</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>12561</v>
+        <v>13561</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>33824</v>
+        <v>33043</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>43804</v>
+        <v>44168</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>63235</v>
+        <v>62205</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>56066</v>
+        <v>55580</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>107997</v>
+        <v>105639</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>70744</v>
+        <v>71172</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>86445</v>
+        <v>87393</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>74716</v>
+        <v>73864</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>144858</v>
+        <v>148071</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>41328</v>
+        <v>41124</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>40166</v>
+        <v>39536</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>31168</v>
+        <v>33557</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>61860</v>
+        <v>62761</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>74194</v>
+        <v>74006</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>98729</v>
+        <v>98037</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>90555</v>
+        <v>90829</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>144137</v>
+        <v>141336</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>106888</v>
+        <v>107769</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>128624</v>
+        <v>131409</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>115327</v>
+        <v>113628</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>191843</v>
+        <v>194643</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>52135</v>
+        <v>52102</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>5399</v>
+        <v>5297</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>10329</v>
+        <v>9940</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>16392</v>
+        <v>16643</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>71802</v>
+        <v>72296</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>52842</v>
+        <v>53391</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>48104</v>
+        <v>48297</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>39135</v>
+        <v>40078</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>134751</v>
+        <v>133039</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>61796</v>
+        <v>61294</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>64166</v>
+        <v>64173</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>61280</v>
+        <v>61007</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>82363</v>
+        <v>82603</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>18818</v>
+        <v>19278</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>27467</v>
+        <v>26974</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>36004</v>
+        <v>34701</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>109668</v>
+        <v>109805</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>85028</v>
+        <v>84778</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>82298</v>
+        <v>83107</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>62068</v>
+        <v>63051</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>181567</v>
+        <v>179701</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>97615</v>
+        <v>96987</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>100374</v>
+        <v>100332</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>89549</v>
+        <v>91458</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>153822</v>
+        <v>154262</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>87185</v>
+        <v>88418</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>65363</v>
+        <v>63606</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>125654</v>
+        <v>127424</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>307611</v>
+        <v>309388</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>309705</v>
+        <v>309299</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>216945</v>
+        <v>220594</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>302336</v>
+        <v>302376</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>475510</v>
+        <v>477050</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>414794</v>
+        <v>410474</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>299162</v>
+        <v>302318</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>443025</v>
+        <v>446890</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>206786</v>
+        <v>208403</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>130182</v>
+        <v>129536</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>103098</v>
+        <v>100061</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>172278</v>
+        <v>174224</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>379630</v>
+        <v>380640</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>383177</v>
+        <v>380275</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>282466</v>
+        <v>286948</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>356213</v>
+        <v>359236</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>564800</v>
+        <v>565543</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>503035</v>
+        <v>497764</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>373557</v>
+        <v>373398</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>515581</v>
+        <v>518788</v>
       </c>
     </row>
     <row r="40">
